--- a/data.xlsx
+++ b/data.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubEnterprise\pnai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466CFC25-8A04-4DBC-A3D7-A6DBA92B6375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAEE23B-D2D5-4C53-88DB-37E49992E988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="13" r:id="rId1"/>
     <sheet name="EntitiesO" sheetId="6" r:id="rId2"/>
     <sheet name="Entities" sheetId="14" r:id="rId3"/>
     <sheet name="Intents" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="17" r:id="rId5"/>
-    <sheet name="Classifier" sheetId="8" r:id="rId6"/>
-    <sheet name="Response Library" sheetId="9" r:id="rId7"/>
-    <sheet name="User Journey " sheetId="12" r:id="rId8"/>
-    <sheet name="Suggestion Pool" sheetId="10" r:id="rId9"/>
+    <sheet name="Classifier" sheetId="8" r:id="rId5"/>
+    <sheet name="Response Library" sheetId="9" r:id="rId6"/>
+    <sheet name="User Journey " sheetId="12" r:id="rId7"/>
+    <sheet name="Suggestion Pool" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Intents!$A$1:$B$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Intents!$A$2:$B$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="645">
   <si>
     <t xml:space="preserve">Custom Entities </t>
   </si>
@@ -560,21 +559,12 @@
     <t>current year,this year</t>
   </si>
   <si>
-    <t>next year,coming year</t>
-  </si>
-  <si>
     <t>last year</t>
   </si>
   <si>
-    <t>last year,previous year,the year before,past year</t>
-  </si>
-  <si>
     <t>custom-brand</t>
   </si>
   <si>
-    <t>custom-age</t>
-  </si>
-  <si>
     <t>custom-incomeGroup</t>
   </si>
   <si>
@@ -593,24 +583,9 @@
     <t>sys-datePeriod</t>
   </si>
   <si>
-    <t>dell,samsung,lenovo,acer,hp,sony,canon,apple</t>
-  </si>
-  <si>
-    <t>less than 25,25-30,30-35,35-40,40-50,greater than 50</t>
-  </si>
-  <si>
     <t>highest,high,maximum,max,largest,greatest</t>
   </si>
   <si>
-    <t>lowest,low,minimum,min,smallest,least</t>
-  </si>
-  <si>
-    <t>top selling,maximum selling,max selling</t>
-  </si>
-  <si>
-    <t>least selling,less selling,minimum selling,min selling,most low</t>
-  </si>
-  <si>
     <t>give me the summary</t>
   </si>
   <si>
@@ -1661,72 +1636,9 @@
     <t>What about for the previous year?</t>
   </si>
   <si>
-    <t>Sales for the year {X} stands at {A} which is [up/down] by {B}% compared to the year {Y}. Top contributing income group and age group are {C} and {D} respectively. {E} is the top performing brand.</t>
-  </si>
-  <si>
     <t>The sales performance for the year {X} stands at {A} which is [up/down] by {B}% when compared to the year {Y}. While {E} is the top performing brand for the year {X}, top contributing income group and age group are {C} and {D} respectively.</t>
   </si>
   <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>[Top/Least/Maximum/Minimum/Highest/Lowest] selling brand is {X}</t>
-  </si>
-  <si>
-    <t>[Top/Least/Maximum/Minimum/Highest/Lowest] selling brand are {X, Y, Z}</t>
-  </si>
-  <si>
-    <t>Brand with [top/least/maximum/minimum/highest/lowest] sales is {X}</t>
-  </si>
-  <si>
-    <t>Brands with [Top/Least/Maximum/Minimum/Highest/Lowest] sales are {X, Y, Z}</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>[Top/Least/Maximum/Minimum/Highest/Lowest] selling year is {X}</t>
-  </si>
-  <si>
-    <t>[Top/Least/Maximum/Minimum/Highest/Lowest] selling years are {X, Y, Z}</t>
-  </si>
-  <si>
-    <t>Year with [top/least/maximum/minimum/highest/lowest] sales is {X}</t>
-  </si>
-  <si>
-    <t>Years with [Top/Least/Maximum/Minimum/Highest/Lowest] sales are {X, Y, Z}</t>
-  </si>
-  <si>
-    <t>Age Group</t>
-  </si>
-  <si>
-    <t>[Top/Least/Maximum/Minimum/Highest/Lowest] contributing age group is {X}</t>
-  </si>
-  <si>
-    <t>[Top/Least/Maximum/Minimum/Highest/Lowest] contributing age groups are {X, Y, Z}</t>
-  </si>
-  <si>
-    <t>Age group that contributed the [top/least/maximum/minimum/highest/lowest] is {X}</t>
-  </si>
-  <si>
-    <t>Age groups that contributed the [Top/Least/Maximum/Minimum/Highest/Lowest] are {X,Y,Z}</t>
-  </si>
-  <si>
-    <t>Income Group</t>
-  </si>
-  <si>
-    <t>[Top/Least/Maximum/Minimum/Highest/Lowest] contributing income group is {X}</t>
-  </si>
-  <si>
-    <t>[Top/Least/Maximum/Minimum/Highest/Lowest] contributing income groups are {X, Y, Z}</t>
-  </si>
-  <si>
-    <t>Income group that contributed the [top/least/maximum/minimum/highest/lowest] is {X}</t>
-  </si>
-  <si>
-    <t>Income groups that contributed the [Top/Least/Maximum/Minimum/Highest/Lowest] are {X,Y,Z}</t>
-  </si>
-  <si>
     <t>Here are some top things to check out!</t>
   </si>
   <si>
@@ -1739,30 +1651,6 @@
     <t>Okay! Below are some quick options for you.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Brand/ Income Group/Age Group </t>
-  </si>
-  <si>
-    <t>Sales of the [brand/age group/income group]{X} is {A}% [greater/lesser] than that of {Y}</t>
-  </si>
-  <si>
-    <t>Among the [brands/age groups/income groups] {X}, {Y} and {Z}, {Y} has the highest sales followed by {Z}</t>
-  </si>
-  <si>
-    <t>[Brand/Age group/Income group] {X} has the highest sales</t>
-  </si>
-  <si>
-    <t>Sales in {X} is {A}% [greater/lesser] than that of {Y}</t>
-  </si>
-  <si>
-    <t>Among {X}, {Y} and {Z}, {Y} has the  [top/least/maximum/minimum/highest/lowest] sales followed by {Z}</t>
-  </si>
-  <si>
-    <t>{X} has the [top/least/maximum/minimum/highest/lowest] sales</t>
-  </si>
-  <si>
-    <t>Generic</t>
-  </si>
-  <si>
     <t>Okay here you go!</t>
   </si>
   <si>
@@ -1772,54 +1660,12 @@
     <t xml:space="preserve">Okay, here I fetch! </t>
   </si>
   <si>
-    <t>Specifics</t>
-  </si>
-  <si>
-    <t>Sales for the age group {X} is {A}</t>
-  </si>
-  <si>
-    <t>Sales for the age groups {X, Y, Z} are {A, B, C}</t>
-  </si>
-  <si>
-    <t>Sales for the income group {X} is {A}</t>
-  </si>
-  <si>
-    <t>Sales for the income groups {X, Y, Z} are {A, B, C}</t>
-  </si>
-  <si>
-    <t>Sales for the brand {X} is {A}</t>
-  </si>
-  <si>
-    <t>Sales for the brands {X, Y, Z} are {A, B, C}</t>
-  </si>
-  <si>
-    <t>Sales for the year {X} is {A}</t>
-  </si>
-  <si>
-    <t>Sales for the years {X, Y, Z} are {A, B, C}</t>
-  </si>
-  <si>
     <t>X = Last Year,Y = Last to Last Year,A = Sales for the year X,B = X-Y/100,C = Top Income Group,D = Top Age Group,E = Top Performing Brand</t>
   </si>
   <si>
     <t>X = Brand A,Y = Brand B,Z = Brand C,A = Sales of X - Sales of Y/100</t>
   </si>
   <si>
-    <t>X = Brand A,Y = Brand B,Z = Brand C,A = Sales of X - Sales of Y/101</t>
-  </si>
-  <si>
-    <t>X = Brand A,Y = Brand B,Z = Brand C,A = Sales of X - Sales of Y/102</t>
-  </si>
-  <si>
-    <t>X = Brand A,Y = Brand B,Z = Brand C,A = Sales of X - Sales of Y/103</t>
-  </si>
-  <si>
-    <t>X = Brand A,Y = Brand B,Z = Brand C,A = Sales of X - Sales of Y/104</t>
-  </si>
-  <si>
-    <t>X = Brand A,Y = Brand B,Z = Brand C,A = Sales of X - Sales of Y/105</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quick Summary </t>
   </si>
   <si>
@@ -1844,33 +1690,6 @@
     <t>Least Contributing Age Group</t>
   </si>
   <si>
-    <t>[Apple vs Canon] sales</t>
-  </si>
-  <si>
-    <t>[Canon vs Acer vs Apple] sales</t>
-  </si>
-  <si>
-    <t>[2016 vs 2017] sales</t>
-  </si>
-  <si>
-    <t>[60000-80000 vs 150000-200000] income group sales</t>
-  </si>
-  <si>
-    <t>[30 to 35 vs 35 to 40] age groups sales</t>
-  </si>
-  <si>
-    <t>[2017] sales</t>
-  </si>
-  <si>
-    <t>[Lenovo] sales</t>
-  </si>
-  <si>
-    <t>[60000-80000] income group sales</t>
-  </si>
-  <si>
-    <t>[30-35] age group sales</t>
-  </si>
-  <si>
     <t>smallTalk</t>
   </si>
   <si>
@@ -1892,24 +1711,12 @@
     <t>generic</t>
   </si>
   <si>
-    <t>You are welcome</t>
-  </si>
-  <si>
-    <t>2015,2016,2017,2018,2019,2020</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
-    <t>60000-80000,80000-100000,100000-150000,150000-200000,greater than 200000,60000 to 80000,80000 to 100000,100000 to 150000,150000 to 200000</t>
-  </si>
-  <si>
     <t>custom-years</t>
   </si>
   <si>
-    <t>custom-params</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -1929,6 +1736,276 @@
   </si>
   <si>
     <t>income group,incomegroups,income groups</t>
+  </si>
+  <si>
+    <t>specifics</t>
+  </si>
+  <si>
+    <t>custom-ageGroup</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>ageGroup</t>
+  </si>
+  <si>
+    <t>incomeGroup</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>custom-intents</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>sale,sold,selling,sellings</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>followup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">custom-brand </t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>synonyms</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>sony</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>acer</t>
+  </si>
+  <si>
+    <t>lenovo</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>25-30</t>
+  </si>
+  <si>
+    <t>30-35</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>40-45</t>
+  </si>
+  <si>
+    <t>greater than 50</t>
+  </si>
+  <si>
+    <t>less than 25</t>
+  </si>
+  <si>
+    <t>25 to 30,25 - 30</t>
+  </si>
+  <si>
+    <t>30 to 35, 35 -30</t>
+  </si>
+  <si>
+    <t>35 to 40 ,35 - 45</t>
+  </si>
+  <si>
+    <t>60000-80000</t>
+  </si>
+  <si>
+    <t>150000-200000</t>
+  </si>
+  <si>
+    <t>greater than 200000</t>
+  </si>
+  <si>
+    <t>100000-150000</t>
+  </si>
+  <si>
+    <t>60000 to 80000</t>
+  </si>
+  <si>
+    <t>100000 to 150000</t>
+  </si>
+  <si>
+    <t>80000 to 100000</t>
+  </si>
+  <si>
+    <t>80000-100000</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>suggestion</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>Intent</t>
+  </si>
+  <si>
+    <t>qualifier</t>
+  </si>
+  <si>
+    <t>singular response</t>
+  </si>
+  <si>
+    <t>plurer response</t>
+  </si>
+  <si>
+    <t>legends</t>
+  </si>
+  <si>
+    <t>user says</t>
+  </si>
+  <si>
+    <t>last year,previous year , the year before,past year</t>
+  </si>
+  <si>
+    <t>Sales of the income group {X} is {A}% [greater/lesser] than that of {Y}</t>
+  </si>
+  <si>
+    <t>Among the income groups {X}, {Y} and {Z}, {Y} has the highest sales followed by {Z}</t>
+  </si>
+  <si>
+    <t>lowest,low,minimum,min,smallest</t>
+  </si>
+  <si>
+    <t>least sellings,lowest sales,most low,less sellings</t>
+  </si>
+  <si>
+    <t>[custom-ageGroup] age group sales</t>
+  </si>
+  <si>
+    <t>[custom-brand] sales</t>
+  </si>
+  <si>
+    <t>[custom-brand vs custom-brand] sales</t>
+  </si>
+  <si>
+    <t>[custom-brand vs custom-brand vs custom-brand] sales</t>
+  </si>
+  <si>
+    <t>[custom-years vs custom-years] sales</t>
+  </si>
+  <si>
+    <t>[custom-incomeGroup vs custom-incomeGroup] income group sales</t>
+  </si>
+  <si>
+    <t>[custom-ageGroup vs custom- ageGroup] age groups sales</t>
+  </si>
+  <si>
+    <t>[custom-incomeGroup] income group sales</t>
+  </si>
+  <si>
+    <t>[custom-years] sales</t>
+  </si>
+  <si>
+    <t>top sellings,top,best sales</t>
+  </si>
+  <si>
+    <t>next year ,coming year</t>
+  </si>
+  <si>
+    <t>Sales of the brand [custom-brand] is {A}% [greater/lesser] than that of [custom-brand]</t>
+  </si>
+  <si>
+    <t>Sales for the year [custom-years] stands at {A} which is [up/down] by {B}% compared to the year [custom-years]. Top contributing income group and age group are {C} and {D} respectively. {E} is the top performing brand.</t>
+  </si>
+  <si>
+    <t>Sales for the year [[custom-years]] is {A}</t>
+  </si>
+  <si>
+    <t>Sales for the brand [[custom-brand]] is {A}</t>
+  </si>
+  <si>
+    <t>Sales for the income group [[custom-incomeGroup]] is {A}</t>
+  </si>
+  <si>
+    <t>Sales for the age group [[custom-ageGroup]] is {A}</t>
+  </si>
+  <si>
+    <t>Below are details</t>
+  </si>
+  <si>
+    <t>[custom-operators] selling brand is [custom-brand]</t>
+  </si>
+  <si>
+    <t>Brand with [custom-operators] sales is  [custom-brand]</t>
+  </si>
+  <si>
+    <t>[custom-operators] selling year is  [custom-years]</t>
+  </si>
+  <si>
+    <t>Year with [custom-operators] sales is [custom-years]</t>
+  </si>
+  <si>
+    <t>[custom-operators] contributing age group is [custom-ageGroup]</t>
+  </si>
+  <si>
+    <t>Age group that contributed the [custom-operators] is [custom-ageGroup]]</t>
+  </si>
+  <si>
+    <t>[custom-operators] contributing income group is [custom-incomeGroup]</t>
+  </si>
+  <si>
+    <t>Income group that contributed the [custom-operators] is [custom-incomeGroup]</t>
+  </si>
+  <si>
+    <t>Among all the brands [custom-brand] has the [custom-operators]  sales followed by [custom-brand]</t>
+  </si>
+  <si>
+    <t>Brand {X} has the [custom-operators]  sales</t>
+  </si>
+  <si>
+    <t>Income group [custom-incomeGroup] has the [custom-operators]  sales</t>
+  </si>
+  <si>
+    <t>[custom-years] has the [[custom-operators]] sales</t>
+  </si>
+  <si>
+    <t>Age group [custom-ageGroup] has the [[custom-operators]] sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among all the age groups [custom-ageGroup] has the [[custom-operators]]  sales </t>
+  </si>
+  <si>
+    <t>Sales in  [[custom-years]] is {A}% [greater/lesser] than that of {[[custom-years]]</t>
+  </si>
+  <si>
+    <t>Among all the years [custom-years] has the [ [custom-operators]] sales followed by  [custom-years]</t>
+  </si>
+  <si>
+    <t>Sales of the age group [[custom-ageGroup]] is {A}% [greater/lesser] than that of  [[custom-ageGroup]]</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +2069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2031,6 +2108,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2049,8 +2132,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2379,32 +2460,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2438,18 +2519,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2574,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D80E-1818-46A4-A8CC-311CA0257CB6}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,160 +2668,388 @@
     <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>173</v>
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>568</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>609</v>
+        <v>568</v>
+      </c>
+      <c r="B3" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>568</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>568</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>176</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>568</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>177</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>178</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>568</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>164</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>568</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" t="s">
-        <v>161</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>556</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" t="s">
-        <v>162</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>610</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>607</v>
+        <v>556</v>
+      </c>
+      <c r="B11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C11" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>611</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>616</v>
+        <v>556</v>
+      </c>
+      <c r="B12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C12" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="B13" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="C13" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="B14" t="s">
-        <v>615</v>
-      </c>
-      <c r="C14" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
-      </c>
-      <c r="C15" t="s">
-        <v>618</v>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" t="s">
+        <v>595</v>
+      </c>
+      <c r="C17" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" t="s">
+        <v>591</v>
+      </c>
+      <c r="C18" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B28" s="15">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>547</v>
+      </c>
+      <c r="B29" s="15">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>547</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>547</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" s="15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>547</v>
+      </c>
+      <c r="B33" s="15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" s="15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>547</v>
+      </c>
+      <c r="B36" t="s">
+        <v>548</v>
+      </c>
+      <c r="C36" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>556</v>
+      </c>
+      <c r="B37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" t="s">
+        <v>550</v>
+      </c>
+      <c r="C38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>561</v>
+      </c>
+      <c r="B39" t="s">
+        <v>562</v>
+      </c>
+      <c r="C39" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>561</v>
+      </c>
+      <c r="B40" t="s">
+        <v>563</v>
+      </c>
+      <c r="C40" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2748,10 +3057,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,12 +3069,12 @@
     <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>179</v>
+    <row r="1" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +3090,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +3106,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,7 +3114,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,7 +3122,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,15 +3130,15 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +3146,7 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +3154,7 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2853,7 +3162,7 @@
         <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2861,7 +3170,7 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2869,7 +3178,7 @@
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +3186,7 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +3194,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +3202,7 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,7 +3210,7 @@
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,7 +3218,7 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,7 +3226,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,7 +3234,7 @@
         <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +3242,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,7 +3250,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +3258,7 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +3266,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +3274,7 @@
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +3282,7 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,7 +3290,7 @@
         <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +3298,7 @@
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,7 +3306,7 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3005,7 +3314,7 @@
         <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3322,7 @@
         <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,7 +3330,7 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,7 +3338,7 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3346,7 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3354,7 @@
         <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3362,7 @@
         <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3370,7 @@
         <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3378,7 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3386,7 @@
         <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3394,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3402,7 @@
         <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3410,7 @@
         <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3418,7 @@
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3426,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3434,7 @@
         <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3442,7 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3450,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3458,7 @@
         <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3466,7 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3474,7 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3482,7 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3490,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3498,7 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3506,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3514,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3522,7 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3530,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3538,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3546,7 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3554,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +3562,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,7 +3570,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3269,7 +3578,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,15 +3586,15 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3293,7 +3602,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3301,7 +3610,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3309,7 +3618,7 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3317,7 +3626,7 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3325,7 +3634,7 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,7 +3642,7 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3341,7 +3650,7 @@
         <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3349,7 +3658,7 @@
         <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3357,7 +3666,7 @@
         <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3365,7 +3674,7 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3373,7 +3682,7 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3381,7 +3690,7 @@
         <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3389,7 +3698,7 @@
         <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3397,7 +3706,7 @@
         <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3405,7 +3714,7 @@
         <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3413,7 +3722,7 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +3730,7 @@
         <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3429,7 +3738,7 @@
         <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,7 +3746,7 @@
         <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3754,7 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,7 +3762,7 @@
         <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3461,7 +3770,7 @@
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3469,15 +3778,15 @@
         <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3485,7 +3794,7 @@
         <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3493,7 +3802,7 @@
         <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3501,7 +3810,7 @@
         <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3509,7 +3818,7 @@
         <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3517,7 +3826,7 @@
         <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3525,7 +3834,7 @@
         <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3533,7 +3842,7 @@
         <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3541,7 +3850,7 @@
         <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,7 +3858,7 @@
         <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,7 +3866,7 @@
         <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,15 +3874,15 @@
         <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,15 +3890,15 @@
         <v>136</v>
       </c>
       <c r="B103" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3597,7 +3906,7 @@
         <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3605,7 +3914,7 @@
         <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +3922,7 @@
         <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3621,7 +3930,7 @@
         <v>137</v>
       </c>
       <c r="B108" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3629,7 +3938,7 @@
         <v>137</v>
       </c>
       <c r="B109" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3946,7 @@
         <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +3954,7 @@
         <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,7 +3962,7 @@
         <v>137</v>
       </c>
       <c r="B112" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3661,7 +3970,7 @@
         <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3669,7 +3978,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3677,7 +3986,7 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,7 +3994,7 @@
         <v>137</v>
       </c>
       <c r="B116" t="s">
-        <v>293</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3693,7 +4002,7 @@
         <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,7 +4010,7 @@
         <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +4018,7 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,7 +4026,7 @@
         <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3725,7 +4034,7 @@
         <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,7 +4042,7 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3741,7 +4050,7 @@
         <v>137</v>
       </c>
       <c r="B123" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3749,7 +4058,7 @@
         <v>137</v>
       </c>
       <c r="B124" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3757,7 +4066,7 @@
         <v>137</v>
       </c>
       <c r="B125" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3765,15 +4074,15 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3781,7 +4090,7 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3789,7 +4098,7 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3797,7 +4106,7 @@
         <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3805,7 +4114,7 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3813,7 +4122,7 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3821,7 +4130,7 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3829,7 +4138,7 @@
         <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3837,7 +4146,7 @@
         <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3845,7 +4154,7 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3853,7 +4162,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,7 +4170,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3869,7 +4178,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3877,7 +4186,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3885,7 +4194,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3893,7 +4202,7 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>317</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3901,7 +4210,7 @@
         <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3909,7 +4218,7 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3917,7 +4226,7 @@
         <v>139</v>
       </c>
       <c r="B145" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3925,7 +4234,7 @@
         <v>139</v>
       </c>
       <c r="B146" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3933,7 +4242,7 @@
         <v>139</v>
       </c>
       <c r="B147" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3941,7 +4250,7 @@
         <v>139</v>
       </c>
       <c r="B148" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3949,15 +4258,15 @@
         <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3965,7 +4274,7 @@
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3973,7 +4282,7 @@
         <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3981,7 +4290,7 @@
         <v>140</v>
       </c>
       <c r="B153" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3989,7 +4298,7 @@
         <v>140</v>
       </c>
       <c r="B154" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3997,7 +4306,7 @@
         <v>140</v>
       </c>
       <c r="B155" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -4005,7 +4314,7 @@
         <v>140</v>
       </c>
       <c r="B156" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -4013,7 +4322,7 @@
         <v>140</v>
       </c>
       <c r="B157" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -4021,7 +4330,7 @@
         <v>140</v>
       </c>
       <c r="B158" t="s">
-        <v>148</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4029,7 +4338,7 @@
         <v>140</v>
       </c>
       <c r="B159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4037,7 +4346,7 @@
         <v>140</v>
       </c>
       <c r="B160" t="s">
-        <v>333</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4045,7 +4354,7 @@
         <v>140</v>
       </c>
       <c r="B161" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,7 +4362,7 @@
         <v>140</v>
       </c>
       <c r="B162" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4061,7 +4370,7 @@
         <v>140</v>
       </c>
       <c r="B163" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,7 +4378,7 @@
         <v>140</v>
       </c>
       <c r="B164" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,7 +4386,7 @@
         <v>140</v>
       </c>
       <c r="B165" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4085,15 +4394,15 @@
         <v>140</v>
       </c>
       <c r="B166" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B167" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4101,7 +4410,7 @@
         <v>138</v>
       </c>
       <c r="B168" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4109,7 +4418,7 @@
         <v>138</v>
       </c>
       <c r="B169" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,7 +4426,7 @@
         <v>138</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4125,7 +4434,7 @@
         <v>138</v>
       </c>
       <c r="B171" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4133,7 +4442,7 @@
         <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4141,7 +4450,7 @@
         <v>138</v>
       </c>
       <c r="B173" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4149,7 +4458,7 @@
         <v>138</v>
       </c>
       <c r="B174" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4157,7 +4466,7 @@
         <v>138</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,7 +4474,7 @@
         <v>138</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4173,7 +4482,7 @@
         <v>138</v>
       </c>
       <c r="B177" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4181,7 +4490,7 @@
         <v>138</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4189,7 +4498,7 @@
         <v>138</v>
       </c>
       <c r="B179" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4197,35 +4506,25 @@
         <v>138</v>
       </c>
       <c r="B180" t="s">
-        <v>352</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B181" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B180" xr:uid="{4BAB2047-9FF4-49FE-AED7-BF7E1F880A96}"/>
+  <autoFilter ref="A2:B181" xr:uid="{4BAB2047-9FF4-49FE-AED7-BF7E1F880A96}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C797D0-E972-4264-9787-D1E478A40F9D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20">
-        <v>2.01520162017201E+23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B278"/>
   <sheetViews>
@@ -4243,2224 +4542,2224 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6">
-        <v>1</v>
+      <c r="B1" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
+      <c r="B2" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
+      <c r="B3" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
+      <c r="B4" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
+      <c r="B5" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
+      <c r="B6" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
+      <c r="B7" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
+      <c r="B8" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
+      <c r="B9" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0</v>
+        <v>345</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
+        <v>346</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
+      <c r="B12" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
+        <v>347</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6">
-        <v>1</v>
+      <c r="B14" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
+      <c r="B15" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
+      <c r="B16" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
+      <c r="B17" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6">
-        <v>1</v>
+      <c r="B18" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="6">
-        <v>1</v>
+      <c r="B19" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="6">
-        <v>1</v>
+      <c r="B20" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="6">
-        <v>1</v>
+      <c r="B21" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="6">
-        <v>1</v>
+      <c r="B22" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="6">
-        <v>1</v>
+      <c r="B23" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="6">
-        <v>1</v>
+      <c r="B24" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="6">
-        <v>1</v>
+      <c r="B25" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="6">
-        <v>1</v>
+      <c r="B26" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="6">
-        <v>1</v>
+      <c r="B27" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="6">
-        <v>1</v>
+      <c r="B28" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="6">
-        <v>1</v>
+      <c r="B29" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="6">
-        <v>1</v>
+      <c r="B30" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="6">
-        <v>1</v>
+      <c r="B31" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="6">
-        <v>1</v>
+      <c r="B32" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="6">
-        <v>1</v>
+      <c r="B33" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="6">
-        <v>1</v>
+      <c r="B34" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="6">
-        <v>1</v>
+      <c r="B35" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="6">
-        <v>1</v>
+      <c r="B36" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="6">
-        <v>1</v>
+      <c r="B37" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="6">
-        <v>1</v>
+      <c r="B38" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="6">
-        <v>1</v>
+      <c r="B39" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="6">
-        <v>1</v>
+      <c r="B40" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="6">
-        <v>1</v>
+      <c r="B41" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="6">
-        <v>1</v>
+      <c r="B42" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="6">
-        <v>1</v>
+      <c r="B43" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="6">
-        <v>1</v>
+      <c r="B44" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="6">
-        <v>1</v>
+      <c r="B45" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="6">
-        <v>1</v>
+      <c r="B46" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="6">
-        <v>1</v>
+      <c r="B47" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="6">
-        <v>1</v>
+      <c r="B48" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="6">
-        <v>1</v>
+      <c r="B49" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="6">
-        <v>1</v>
+      <c r="B50" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="6">
-        <v>1</v>
+      <c r="B51" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="6">
-        <v>1</v>
+      <c r="B52" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="6">
-        <v>1</v>
+      <c r="B53" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="6">
-        <v>1</v>
+      <c r="B54" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="6">
-        <v>1</v>
+      <c r="B55" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="6">
-        <v>1</v>
+      <c r="B56" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="6">
-        <v>1</v>
+      <c r="B57" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="6">
-        <v>1</v>
+      <c r="B58" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="6">
-        <v>1</v>
+      <c r="B59" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="6">
-        <v>1</v>
+      <c r="B60" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="6">
-        <v>1</v>
+      <c r="B61" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
-      <c r="B62" s="6">
-        <v>1</v>
+      <c r="B62" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="6">
-        <v>1</v>
+      <c r="B63" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="6">
-        <v>1</v>
+      <c r="B64" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="6">
-        <v>1</v>
+      <c r="B65" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="6">
-        <v>1</v>
+      <c r="B66" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="6">
-        <v>1</v>
+      <c r="B67" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="6">
-        <v>1</v>
+      <c r="B68" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="6">
-        <v>1</v>
+      <c r="B69" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="6">
-        <v>1</v>
+      <c r="B70" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="6">
-        <v>1</v>
+      <c r="B71" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="6">
-        <v>1</v>
+      <c r="B72" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="6">
-        <v>1</v>
+      <c r="B73" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="6">
-        <v>1</v>
+      <c r="B74" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="6">
-        <v>1</v>
+      <c r="B75" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="6">
-        <v>1</v>
+      <c r="B76" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="6">
-        <v>1</v>
+      <c r="B77" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="6">
-        <v>1</v>
+      <c r="B78" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="6">
-        <v>1</v>
+      <c r="B79" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="6">
-        <v>1</v>
+      <c r="B80" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="6">
-        <v>1</v>
+      <c r="B81" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="6">
-        <v>1</v>
+      <c r="B82" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>102</v>
       </c>
-      <c r="B83" s="6">
-        <v>1</v>
+      <c r="B83" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="6">
-        <v>1</v>
+      <c r="B84" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="6">
-        <v>1</v>
+      <c r="B85" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="6">
-        <v>1</v>
+      <c r="B86" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="6">
-        <v>1</v>
+      <c r="B87" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="6">
-        <v>1</v>
+      <c r="B88" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="6">
-        <v>1</v>
+      <c r="B89" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="6">
-        <v>1</v>
+      <c r="B90" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="6">
-        <v>1</v>
+      <c r="B91" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="6">
-        <v>1</v>
+      <c r="B92" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>356</v>
-      </c>
-      <c r="B93" s="6">
-        <v>1</v>
+        <v>348</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>357</v>
-      </c>
-      <c r="B94" s="6">
-        <v>1</v>
+        <v>349</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>358</v>
-      </c>
-      <c r="B95" s="6">
-        <v>1</v>
+        <v>350</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>359</v>
-      </c>
-      <c r="B96" s="6">
-        <v>1</v>
+        <v>351</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>360</v>
-      </c>
-      <c r="B97" s="6">
-        <v>1</v>
+        <v>352</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>361</v>
-      </c>
-      <c r="B98" s="6">
-        <v>1</v>
+        <v>353</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>362</v>
-      </c>
-      <c r="B99" s="6">
-        <v>1</v>
+        <v>354</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>363</v>
-      </c>
-      <c r="B100" s="6">
-        <v>1</v>
+        <v>355</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>364</v>
-      </c>
-      <c r="B101" s="6">
-        <v>1</v>
+        <v>356</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>365</v>
-      </c>
-      <c r="B102" s="6">
-        <v>1</v>
+        <v>357</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>366</v>
-      </c>
-      <c r="B103" s="6">
-        <v>1</v>
+        <v>358</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>367</v>
-      </c>
-      <c r="B104" s="6">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>121</v>
       </c>
-      <c r="B105" s="6">
-        <v>1</v>
+      <c r="B105" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>368</v>
-      </c>
-      <c r="B106" s="6">
-        <v>1</v>
+        <v>360</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>369</v>
-      </c>
-      <c r="B107" s="6">
-        <v>1</v>
+        <v>361</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>370</v>
-      </c>
-      <c r="B108" s="6">
-        <v>1</v>
+        <v>362</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>371</v>
-      </c>
-      <c r="B109" s="6">
-        <v>1</v>
+        <v>363</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>372</v>
-      </c>
-      <c r="B110" s="6">
-        <v>1</v>
+        <v>364</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>373</v>
-      </c>
-      <c r="B111" s="6">
-        <v>1</v>
+        <v>365</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>374</v>
-      </c>
-      <c r="B112" s="6">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>375</v>
-      </c>
-      <c r="B113" s="6">
-        <v>1</v>
+        <v>367</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>376</v>
-      </c>
-      <c r="B114" s="6">
-        <v>1</v>
+        <v>368</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>377</v>
-      </c>
-      <c r="B115" s="6">
-        <v>1</v>
+        <v>369</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>378</v>
-      </c>
-      <c r="B116" s="6">
-        <v>1</v>
+        <v>370</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>379</v>
-      </c>
-      <c r="B117" s="6">
-        <v>1</v>
+        <v>371</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>141</v>
       </c>
-      <c r="B118" s="6">
-        <v>1</v>
+      <c r="B118" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>380</v>
-      </c>
-      <c r="B119" s="6">
-        <v>1</v>
+        <v>372</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>381</v>
-      </c>
-      <c r="B120" s="6">
-        <v>1</v>
+        <v>373</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>382</v>
-      </c>
-      <c r="B121" s="6">
-        <v>1</v>
+        <v>374</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>383</v>
-      </c>
-      <c r="B122" s="6">
-        <v>1</v>
+        <v>375</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>384</v>
-      </c>
-      <c r="B123" s="6">
-        <v>1</v>
+        <v>376</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>385</v>
-      </c>
-      <c r="B124" s="6">
-        <v>1</v>
+        <v>377</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>386</v>
-      </c>
-      <c r="B125" s="6">
-        <v>1</v>
+        <v>378</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>387</v>
-      </c>
-      <c r="B126" s="6">
-        <v>1</v>
+        <v>379</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>388</v>
-      </c>
-      <c r="B127" s="6">
-        <v>1</v>
+        <v>380</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>389</v>
-      </c>
-      <c r="B128" s="6">
-        <v>1</v>
+        <v>381</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>390</v>
-      </c>
-      <c r="B129" s="6">
-        <v>1</v>
+        <v>382</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>391</v>
-      </c>
-      <c r="B130" s="6">
-        <v>1</v>
+        <v>383</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>392</v>
-      </c>
-      <c r="B131" s="6">
-        <v>1</v>
+        <v>384</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>393</v>
-      </c>
-      <c r="B132" s="6">
-        <v>1</v>
+        <v>385</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>394</v>
-      </c>
-      <c r="B133" s="6">
-        <v>1</v>
+        <v>386</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>395</v>
-      </c>
-      <c r="B134" s="6">
-        <v>1</v>
+        <v>387</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>396</v>
-      </c>
-      <c r="B135" s="6">
-        <v>1</v>
+        <v>388</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>397</v>
-      </c>
-      <c r="B136" s="6">
-        <v>1</v>
+        <v>389</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>398</v>
-      </c>
-      <c r="B137" s="6">
-        <v>1</v>
+        <v>390</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>399</v>
-      </c>
-      <c r="B138" s="6">
-        <v>1</v>
+        <v>391</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>400</v>
-      </c>
-      <c r="B139" s="6">
-        <v>1</v>
+        <v>392</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>401</v>
-      </c>
-      <c r="B140" s="6">
-        <v>1</v>
+        <v>393</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="6">
-        <v>1</v>
+      <c r="B141" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>402</v>
-      </c>
-      <c r="B142" s="6">
-        <v>1</v>
+        <v>394</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>403</v>
-      </c>
-      <c r="B143" s="6">
-        <v>1</v>
+        <v>395</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="6">
-        <v>1</v>
+      <c r="B144" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>404</v>
-      </c>
-      <c r="B145" s="6">
-        <v>1</v>
+        <v>396</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>405</v>
-      </c>
-      <c r="B146" s="6">
-        <v>1</v>
+        <v>397</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>406</v>
-      </c>
-      <c r="B147" s="6">
-        <v>1</v>
+        <v>398</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>407</v>
-      </c>
-      <c r="B148" s="6">
-        <v>1</v>
+        <v>399</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>408</v>
-      </c>
-      <c r="B149" s="6">
-        <v>1</v>
+        <v>400</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>409</v>
-      </c>
-      <c r="B150" s="6">
-        <v>1</v>
+        <v>401</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>410</v>
-      </c>
-      <c r="B151" s="6">
-        <v>1</v>
+        <v>402</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>411</v>
-      </c>
-      <c r="B152" s="6">
-        <v>1</v>
+        <v>403</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>412</v>
-      </c>
-      <c r="B153" s="6">
-        <v>1</v>
+        <v>404</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>413</v>
-      </c>
-      <c r="B154" s="6">
-        <v>1</v>
+        <v>405</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>414</v>
-      </c>
-      <c r="B155" s="6">
-        <v>1</v>
+        <v>406</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>415</v>
-      </c>
-      <c r="B156" s="6">
-        <v>1</v>
+        <v>407</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>416</v>
-      </c>
-      <c r="B157" s="6">
-        <v>1</v>
+        <v>408</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>417</v>
-      </c>
-      <c r="B158" s="6">
-        <v>1</v>
+        <v>409</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>418</v>
-      </c>
-      <c r="B159" s="6">
-        <v>1</v>
+        <v>410</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>419</v>
-      </c>
-      <c r="B160" s="6">
-        <v>1</v>
+        <v>411</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>148</v>
       </c>
-      <c r="B161" s="6">
-        <v>1</v>
+      <c r="B161" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>149</v>
       </c>
-      <c r="B162" s="6">
-        <v>1</v>
+      <c r="B162" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>420</v>
-      </c>
-      <c r="B163" s="6">
-        <v>1</v>
+        <v>412</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>421</v>
-      </c>
-      <c r="B164" s="6">
-        <v>1</v>
+        <v>413</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>422</v>
-      </c>
-      <c r="B165" s="6">
-        <v>1</v>
+        <v>414</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>423</v>
-      </c>
-      <c r="B166" s="6">
-        <v>1</v>
+        <v>415</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>424</v>
-      </c>
-      <c r="B167" s="6">
-        <v>1</v>
+        <v>416</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>425</v>
-      </c>
-      <c r="B168" s="6">
-        <v>1</v>
+        <v>417</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>419</v>
-      </c>
-      <c r="B169" s="6">
-        <v>1</v>
+        <v>411</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>426</v>
-      </c>
-      <c r="B170" s="6">
-        <v>1</v>
+        <v>418</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>427</v>
-      </c>
-      <c r="B171" s="6">
-        <v>1</v>
+        <v>419</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>428</v>
-      </c>
-      <c r="B172" s="6">
-        <v>1</v>
+        <v>420</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>429</v>
-      </c>
-      <c r="B173" s="6">
-        <v>1</v>
+        <v>421</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>430</v>
-      </c>
-      <c r="B174" s="6">
-        <v>1</v>
+        <v>422</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>431</v>
-      </c>
-      <c r="B175" s="6">
-        <v>1</v>
+        <v>423</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>432</v>
-      </c>
-      <c r="B176" s="6">
-        <v>1</v>
+        <v>424</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>433</v>
-      </c>
-      <c r="B177" s="6">
-        <v>1</v>
+        <v>425</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>434</v>
-      </c>
-      <c r="B178" s="6">
-        <v>1</v>
+        <v>426</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>435</v>
-      </c>
-      <c r="B179" s="6">
-        <v>1</v>
+        <v>427</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>436</v>
-      </c>
-      <c r="B180" s="6">
-        <v>1</v>
+        <v>428</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>437</v>
-      </c>
-      <c r="B181" s="6">
-        <v>1</v>
+        <v>429</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>438</v>
-      </c>
-      <c r="B182" s="6">
-        <v>1</v>
+        <v>430</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>439</v>
-      </c>
-      <c r="B183" s="6">
-        <v>1</v>
+        <v>431</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>440</v>
-      </c>
-      <c r="B184" s="6">
-        <v>0</v>
+        <v>432</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>441</v>
-      </c>
-      <c r="B185" s="6">
-        <v>0</v>
+        <v>433</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>442</v>
-      </c>
-      <c r="B186" s="6">
-        <v>0</v>
+        <v>434</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>443</v>
-      </c>
-      <c r="B187" s="6">
-        <v>0</v>
+        <v>435</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>441</v>
-      </c>
-      <c r="B188" s="6">
-        <v>0</v>
+        <v>433</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>444</v>
-      </c>
-      <c r="B189" s="6">
-        <v>0</v>
+        <v>436</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>445</v>
-      </c>
-      <c r="B190" s="6">
-        <v>0</v>
+        <v>437</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>446</v>
-      </c>
-      <c r="B191" s="6">
-        <v>0</v>
+        <v>438</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>447</v>
-      </c>
-      <c r="B192" s="6">
-        <v>0</v>
+        <v>439</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>448</v>
-      </c>
-      <c r="B193" s="6">
-        <v>0</v>
+        <v>440</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>355</v>
-      </c>
-      <c r="B194" s="6">
-        <v>0</v>
+        <v>347</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>449</v>
-      </c>
-      <c r="B195" s="6">
-        <v>0</v>
+        <v>441</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>450</v>
-      </c>
-      <c r="B196" s="6">
-        <v>0</v>
+        <v>442</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>451</v>
-      </c>
-      <c r="B197" s="6">
-        <v>0</v>
+        <v>443</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>452</v>
-      </c>
-      <c r="B198" s="6">
-        <v>0</v>
+        <v>444</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>453</v>
-      </c>
-      <c r="B199" s="6">
-        <v>0</v>
+        <v>445</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>454</v>
-      </c>
-      <c r="B200" s="6">
-        <v>0</v>
+        <v>446</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>455</v>
-      </c>
-      <c r="B201" s="6">
-        <v>0</v>
+        <v>447</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>456</v>
-      </c>
-      <c r="B202" s="6">
-        <v>0</v>
+        <v>448</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>457</v>
-      </c>
-      <c r="B203" s="6">
-        <v>0</v>
+        <v>449</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>458</v>
-      </c>
-      <c r="B204" s="6">
-        <v>0</v>
+        <v>450</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>459</v>
-      </c>
-      <c r="B205" s="6">
-        <v>0</v>
+        <v>451</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>460</v>
-      </c>
-      <c r="B206" s="6">
-        <v>0</v>
+        <v>452</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>461</v>
-      </c>
-      <c r="B207" s="6">
-        <v>0</v>
+        <v>453</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>462</v>
-      </c>
-      <c r="B208" s="6">
-        <v>0</v>
+        <v>454</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>463</v>
-      </c>
-      <c r="B209" s="6">
-        <v>0</v>
+        <v>455</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>464</v>
-      </c>
-      <c r="B210" s="6">
-        <v>0</v>
+        <v>456</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>465</v>
-      </c>
-      <c r="B211" s="6">
-        <v>0</v>
+        <v>457</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>466</v>
-      </c>
-      <c r="B212" s="6">
-        <v>0</v>
+        <v>458</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>467</v>
-      </c>
-      <c r="B213" s="6">
-        <v>0</v>
+        <v>459</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>468</v>
-      </c>
-      <c r="B214" s="6">
-        <v>0</v>
+        <v>460</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>469</v>
-      </c>
-      <c r="B215" s="6">
-        <v>0</v>
+        <v>461</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>470</v>
-      </c>
-      <c r="B216" s="6">
-        <v>0</v>
+        <v>462</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>471</v>
-      </c>
-      <c r="B217" s="6">
-        <v>0</v>
+        <v>463</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>472</v>
-      </c>
-      <c r="B218" s="6">
-        <v>0</v>
+        <v>464</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>473</v>
-      </c>
-      <c r="B219" s="6">
-        <v>0</v>
+        <v>465</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>474</v>
-      </c>
-      <c r="B220" s="6">
-        <v>0</v>
+        <v>466</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>475</v>
-      </c>
-      <c r="B221" s="6">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>476</v>
-      </c>
-      <c r="B222" s="6">
-        <v>0</v>
+        <v>468</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>477</v>
-      </c>
-      <c r="B223" s="6">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>478</v>
-      </c>
-      <c r="B224" s="6">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>479</v>
-      </c>
-      <c r="B225" s="6">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>468</v>
-      </c>
-      <c r="B226" s="6">
-        <v>0</v>
+        <v>460</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>480</v>
-      </c>
-      <c r="B227" s="6">
-        <v>0</v>
+        <v>472</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>481</v>
-      </c>
-      <c r="B228" s="6">
-        <v>0</v>
+        <v>473</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>482</v>
-      </c>
-      <c r="B229" s="6">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>483</v>
-      </c>
-      <c r="B230" s="6">
-        <v>0</v>
+        <v>475</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>484</v>
-      </c>
-      <c r="B231" s="6">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>485</v>
-      </c>
-      <c r="B232" s="6">
-        <v>0</v>
+        <v>477</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>486</v>
-      </c>
-      <c r="B233" s="6">
-        <v>0</v>
+        <v>478</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>487</v>
-      </c>
-      <c r="B234" s="6">
-        <v>0</v>
+        <v>479</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>488</v>
-      </c>
-      <c r="B235" s="6">
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>489</v>
-      </c>
-      <c r="B236" s="6">
-        <v>0</v>
+        <v>481</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>490</v>
-      </c>
-      <c r="B237" s="6">
-        <v>0</v>
+        <v>482</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>491</v>
-      </c>
-      <c r="B238" s="6">
-        <v>0</v>
+        <v>483</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>492</v>
-      </c>
-      <c r="B239" s="6">
-        <v>0</v>
+        <v>484</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>493</v>
-      </c>
-      <c r="B240" s="6">
-        <v>0</v>
+        <v>485</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>494</v>
-      </c>
-      <c r="B241" s="6">
-        <v>0</v>
+        <v>486</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>495</v>
-      </c>
-      <c r="B242" s="6">
-        <v>0</v>
+        <v>487</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>496</v>
-      </c>
-      <c r="B243" s="6">
-        <v>0</v>
+        <v>488</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>497</v>
-      </c>
-      <c r="B244" s="6">
-        <v>0</v>
+        <v>489</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>498</v>
-      </c>
-      <c r="B245" s="6">
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>499</v>
-      </c>
-      <c r="B246" s="6">
-        <v>0</v>
+        <v>491</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>500</v>
-      </c>
-      <c r="B247" s="6">
-        <v>0</v>
+        <v>492</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>501</v>
-      </c>
-      <c r="B248" s="6">
-        <v>0</v>
+        <v>493</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>502</v>
-      </c>
-      <c r="B249" s="6">
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>503</v>
-      </c>
-      <c r="B250" s="6">
-        <v>0</v>
+        <v>495</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>504</v>
-      </c>
-      <c r="B251" s="6">
-        <v>0</v>
+        <v>496</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>505</v>
-      </c>
-      <c r="B252" s="6">
-        <v>0</v>
+        <v>497</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>506</v>
-      </c>
-      <c r="B253" s="6">
-        <v>0</v>
+        <v>498</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>507</v>
-      </c>
-      <c r="B254" s="6">
-        <v>0</v>
+        <v>499</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>508</v>
-      </c>
-      <c r="B255" s="6">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>509</v>
-      </c>
-      <c r="B256" s="6">
-        <v>0</v>
+        <v>501</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>510</v>
-      </c>
-      <c r="B257" s="6">
-        <v>0</v>
+        <v>502</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>511</v>
-      </c>
-      <c r="B258" s="6">
-        <v>0</v>
+        <v>503</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>512</v>
-      </c>
-      <c r="B259" s="6">
-        <v>0</v>
+        <v>504</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>513</v>
-      </c>
-      <c r="B260" s="6">
-        <v>0</v>
+        <v>505</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>514</v>
-      </c>
-      <c r="B261" s="6">
-        <v>0</v>
+        <v>506</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>515</v>
-      </c>
-      <c r="B262" s="6">
-        <v>0</v>
+        <v>507</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>516</v>
-      </c>
-      <c r="B263" s="6">
-        <v>0</v>
+        <v>508</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>517</v>
-      </c>
-      <c r="B264" s="6">
-        <v>0</v>
+        <v>509</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>518</v>
-      </c>
-      <c r="B265" s="6">
-        <v>0</v>
+        <v>510</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>519</v>
-      </c>
-      <c r="B266" s="6">
-        <v>0</v>
+        <v>511</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>520</v>
-      </c>
-      <c r="B267" s="6">
-        <v>0</v>
+        <v>512</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>478</v>
-      </c>
-      <c r="B268" s="6">
-        <v>0</v>
+        <v>470</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>521</v>
-      </c>
-      <c r="B269" s="6">
-        <v>0</v>
+        <v>513</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>522</v>
-      </c>
-      <c r="B270" s="6">
-        <v>0</v>
+        <v>514</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>523</v>
-      </c>
-      <c r="B271" s="6">
-        <v>0</v>
+        <v>515</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>524</v>
-      </c>
-      <c r="B272" s="6">
-        <v>0</v>
+        <v>516</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>525</v>
-      </c>
-      <c r="B273" s="6">
-        <v>0</v>
+        <v>517</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>468</v>
-      </c>
-      <c r="B274" s="6">
-        <v>0</v>
+        <v>460</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>526</v>
-      </c>
-      <c r="B275" s="6">
-        <v>0</v>
+        <v>518</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>527</v>
-      </c>
-      <c r="B276" s="6">
-        <v>0</v>
+        <v>519</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>469</v>
-      </c>
-      <c r="B277" s="6">
-        <v>0</v>
+        <v>461</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>528</v>
-      </c>
-      <c r="B278" s="6">
-        <v>0</v>
+        <v>520</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -6468,85 +6767,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="109.7109375" customWidth="1"/>
     <col min="4" max="4" width="70.140625" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="13" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>530</v>
+        <v>622</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="13" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>533</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="13" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>531</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>535</v>
+        <v>627</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6554,16 +6853,16 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>537</v>
+        <v>629</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>538</v>
+        <v>627</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6571,16 +6870,16 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="C6" t="s">
-        <v>539</v>
+        <v>630</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>540</v>
+        <v>627</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6588,16 +6887,16 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C7" t="s">
-        <v>542</v>
+        <v>631</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>543</v>
+        <v>627</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6605,16 +6904,16 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="C8" t="s">
-        <v>544</v>
+        <v>632</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>545</v>
+        <v>627</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6622,16 +6921,16 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="C9" t="s">
-        <v>547</v>
+        <v>633</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>548</v>
+        <v>627</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6639,27 +6938,33 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>546</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>549</v>
+        <v>634</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>550</v>
+        <v>627</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>562</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>551</v>
+        <v>635</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6667,10 +6972,10 @@
         <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C12" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6678,10 +6983,10 @@
         <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C13" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6689,294 +6994,377 @@
         <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C15" t="s">
-        <v>556</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>555</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>557</v>
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>621</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>555</v>
-      </c>
-      <c r="C17" t="s">
-        <v>558</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>536</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>559</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>579</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>536</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>560</v>
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>606</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" t="s">
-        <v>561</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>638</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>556</v>
+      </c>
+      <c r="C22" t="s">
+        <v>644</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>556</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>556</v>
+      </c>
+      <c r="C24" t="s">
+        <v>640</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>547</v>
+      </c>
+      <c r="C25" t="s">
+        <v>642</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>547</v>
+      </c>
+      <c r="C27" t="s">
+        <v>639</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>137</v>
       </c>
-      <c r="B21" t="s">
-        <v>562</v>
-      </c>
-      <c r="C21" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" t="s">
-        <v>562</v>
-      </c>
-      <c r="C22" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" t="s">
-        <v>562</v>
-      </c>
-      <c r="C23" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" t="s">
-        <v>566</v>
-      </c>
-      <c r="C24" t="s">
-        <v>567</v>
-      </c>
-      <c r="D24" t="s">
-        <v>568</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" t="s">
-        <v>562</v>
-      </c>
-      <c r="C25" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" t="s">
-        <v>562</v>
-      </c>
-      <c r="C26" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" t="s">
-        <v>562</v>
-      </c>
-      <c r="C27" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
       <c r="B28" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="C28" t="s">
-        <v>569</v>
-      </c>
-      <c r="D28" t="s">
-        <v>570</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C29" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C30" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C31" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+      <c r="D31" t="s">
+        <v>627</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="C32" t="s">
-        <v>571</v>
-      </c>
-      <c r="D32" t="s">
-        <v>572</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C33" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>545</v>
+      </c>
+      <c r="C34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>625</v>
+      </c>
+      <c r="D35" t="s">
+        <v>627</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>545</v>
+      </c>
+      <c r="C36" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" t="s">
+        <v>545</v>
+      </c>
+      <c r="C37" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>545</v>
+      </c>
+      <c r="C38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
+        <v>624</v>
+      </c>
+      <c r="D39" t="s">
+        <v>627</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>140</v>
       </c>
-      <c r="B34" t="s">
-        <v>562</v>
-      </c>
-      <c r="C34" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B40" t="s">
+        <v>545</v>
+      </c>
+      <c r="C40" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>140</v>
       </c>
-      <c r="B35" t="s">
-        <v>562</v>
-      </c>
-      <c r="C35" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B41" t="s">
+        <v>545</v>
+      </c>
+      <c r="C41" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>140</v>
       </c>
-      <c r="B36" t="s">
-        <v>566</v>
-      </c>
-      <c r="C36" t="s">
-        <v>573</v>
-      </c>
-      <c r="D36" t="s">
-        <v>574</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>576</v>
+      <c r="B42" t="s">
+        <v>545</v>
+      </c>
+      <c r="C42" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
+        <v>547</v>
+      </c>
+      <c r="C43" t="s">
+        <v>623</v>
+      </c>
+      <c r="D43" t="s">
+        <v>627</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -6986,12 +7374,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:L6"/>
+      <selection activeCell="F11" sqref="F11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7003,66 +7391,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:17" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -7070,219 +7458,244 @@
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
@@ -7299,302 +7712,371 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>545</v>
       </c>
       <c r="B2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>140</v>
+      <c r="C4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="C5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>64</v>
+      <c r="C6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="C7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>64</v>
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+      <c r="C9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="C11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+      <c r="C12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+      <c r="C13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="C14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+      <c r="C15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="C16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="C19" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>138</v>
+        <v>534</v>
+      </c>
+      <c r="C20" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>139</v>
+        <v>535</v>
+      </c>
+      <c r="C21" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>137</v>
+        <v>536</v>
+      </c>
+      <c r="C22" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>599</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="C23" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>538</v>
+      </c>
+      <c r="C24" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="C25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="C26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+      <c r="C27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="C28" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>605</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>605</v>
+        <v>539</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C29" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>605</v>
+        <v>531</v>
+      </c>
+      <c r="C30" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>606</v>
+        <v>532</v>
+      </c>
+      <c r="C31" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
